--- a/DATA_goal/Junction_Flooding_438.xlsx
+++ b/DATA_goal/Junction_Flooding_438.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -462,9 +462,9 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
@@ -759,103 +759,103 @@
         <v>44782.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.65</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.25</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.87</v>
+        <v>78.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_438.xlsx
+++ b/DATA_goal/Junction_Flooding_438.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.50694444445</v>
+        <v>45119.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.51388888889</v>
+        <v>45119.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.47</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>7.989</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.614</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.37</v>
+        <v>24.928</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>19.621</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.64</v>
+        <v>35.689</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.22</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.23</v>
+        <v>5.932</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.37</v>
+        <v>9.959</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.35</v>
+        <v>10.367</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.25</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.47</v>
+        <v>12.634</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.27</v>
+        <v>7.932</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.482</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.946</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>130.023</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.52</v>
+        <v>25.298</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.27</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.74</v>
+        <v>16.585</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>8.561</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.866</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.26</v>
+        <v>17.306</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>6.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>7.895</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6</v>
+        <v>10.427</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.47</v>
+        <v>32.797</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>4.506</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.52083333334</v>
+        <v>45119.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.43</v>
+        <v>3.843</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.99</v>
+        <v>2.441</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.888</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.62</v>
+        <v>8.295999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.02</v>
+        <v>6.144</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.33</v>
+        <v>3.026</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.5</v>
+        <v>15.588</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.47</v>
+        <v>4.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.71</v>
+        <v>1.914</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.08</v>
+        <v>2.568</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.24</v>
+        <v>3.32</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.39</v>
+        <v>3.405</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.975</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.04</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.54</v>
+        <v>4.177</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9</v>
+        <v>2.841</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.927</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.463</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.24</v>
+        <v>38.497</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.65</v>
+        <v>8.648</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.98</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.08</v>
+        <v>5.522</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.96</v>
+        <v>2.775</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.844</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.2</v>
+        <v>7.141</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.93</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.3</v>
+        <v>2.313</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.91</v>
+        <v>2.741</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.42</v>
+        <v>3.456</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.06</v>
+        <v>14.616</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.68</v>
+        <v>1.405</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.15</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.52777777778</v>
+        <v>45119.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.2</v>
+        <v>12.49</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.33</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.25</v>
+        <v>27.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.51</v>
+        <v>21.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.88</v>
+        <v>9.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.82</v>
+        <v>35.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.51</v>
+        <v>15.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.86</v>
+        <v>6.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.78</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.29</v>
+        <v>10.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.74</v>
+        <v>11.45</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.86</v>
+        <v>3.14</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.58</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.02</v>
+        <v>13.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.65</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.73</v>
+        <v>141.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.27</v>
+        <v>27.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.15</v>
+        <v>9.02</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.61</v>
+        <v>18.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.48</v>
+        <v>9.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.76</v>
+        <v>1.62</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>17.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.6</v>
+        <v>7.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.41</v>
+        <v>7.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.73</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.68</v>
+        <v>11.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.87</v>
+        <v>31.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.05</v>
+        <v>5.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.37</v>
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_438.xlsx
+++ b/DATA_goal/Junction_Flooding_438.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45119.50694444445</v>
+        <v>44782.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.815</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.263</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.771</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.807</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.941</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.232</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.653</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.083</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.597</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.223</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.159</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.251</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.431</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.368</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.219</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.924</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.527</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.146</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.789</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.048</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.162</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.789</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.728</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.564</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.528</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.849</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.316</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.381</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45119.51388888889</v>
+        <v>44782.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.53</v>
+        <v>0.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.989</v>
+        <v>0.261</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.614</v>
+        <v>0.174</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.928</v>
+        <v>0.365</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.621</v>
+        <v>0.064</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.074</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.689</v>
+        <v>0.637</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.961</v>
+        <v>0.218</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.932</v>
+        <v>0.229</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.598000000000001</v>
+        <v>0.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.959</v>
+        <v>0.374</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.367</v>
+        <v>0.347</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.9</v>
+        <v>0.286</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.023</v>
+        <v>0.248</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.634</v>
+        <v>0.471</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.932</v>
+        <v>0.272</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.482</v>
+        <v>0.238</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.946</v>
+        <v>0.202</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.023</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.298</v>
+        <v>0.525</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>0.271</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.585</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.561</v>
+        <v>0.248</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.866</v>
+        <v>0.124</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.306</v>
+        <v>0.265</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.357</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.65</v>
+        <v>1.002</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.895</v>
+        <v>0.213</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.427</v>
+        <v>0.605</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>0.621</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.797</v>
+        <v>0.472</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.506</v>
+        <v>0.264</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.413</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45119.52083333334</v>
+        <v>44782.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.843</v>
+        <v>1.434</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.441</v>
+        <v>0.99</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.888</v>
+        <v>0.188</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.295999999999999</v>
+        <v>2.617</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.144</v>
+        <v>2.016</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.026</v>
+        <v>1.333</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.588</v>
+        <v>2.499</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.654</v>
+        <v>1.475</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.914</v>
+        <v>0.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.568</v>
+        <v>1.078</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.32</v>
+        <v>1.243</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.405</v>
+        <v>1.393</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.975</v>
+        <v>0.438</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.008</v>
+        <v>1.044</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.177</v>
+        <v>1.544</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.841</v>
+        <v>0.901</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.242</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.652</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.927</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>38.497</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>8.648</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>2.776</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>5.522</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>7.141</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>2.452</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>2.313</v>
+        <v>1.296</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.741</v>
+        <v>0.908</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.456</v>
+        <v>1.423</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.453</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.616</v>
+        <v>2.063</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.405</v>
+        <v>0.678</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.473</v>
+        <v>1.154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45119.52777777778</v>
+        <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.49</v>
+        <v>7.201</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>5.328</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.14</v>
+        <v>15.255</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.88</v>
+        <v>12.514</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.83</v>
+        <v>5.883</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.26</v>
+        <v>16.817</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.12</v>
+        <v>8.512</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.61</v>
+        <v>3.859</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>5.784</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.89</v>
+        <v>6.287</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.45</v>
+        <v>6.738</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.14</v>
+        <v>1.861</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>5.575</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.8</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>4.647</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.332</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>141.43</v>
+        <v>78.729</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.21</v>
+        <v>15.271</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.02</v>
+        <v>5.149</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.13</v>
+        <v>10.613</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.52</v>
+        <v>5.478</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.763</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.31</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.97</v>
+        <v>4.603</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.12</v>
+        <v>4.407</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>4.733</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.42</v>
+        <v>6.683</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.361</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.82</v>
+        <v>14.866</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.01</v>
+        <v>3.051</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.28</v>
+        <v>6.389</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.37</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_438.xlsx
+++ b/DATA_goal/Junction_Flooding_438.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.50694444445</v>
+        <v>45119.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.51388888889</v>
+        <v>45119.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.468</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.261</v>
+        <v>7.989</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.174</v>
+        <v>1.614</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.365</v>
+        <v>24.928</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.064</v>
+        <v>19.621</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.637</v>
+        <v>35.689</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.218</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.229</v>
+        <v>5.932</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.264</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.374</v>
+        <v>9.959</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.347</v>
+        <v>10.367</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.286</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.248</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.471</v>
+        <v>12.634</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.272</v>
+        <v>7.932</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.238</v>
+        <v>1.482</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.202</v>
+        <v>0.946</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>130.023</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.525</v>
+        <v>25.298</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.271</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.74</v>
+        <v>16.585</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.248</v>
+        <v>8.561</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.124</v>
+        <v>1.866</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.265</v>
+        <v>17.306</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.002</v>
+        <v>6.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.213</v>
+        <v>7.895</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.605</v>
+        <v>10.427</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.621</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.472</v>
+        <v>32.797</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.264</v>
+        <v>4.506</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.52083333334</v>
+        <v>45119.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.434</v>
+        <v>3.843</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.99</v>
+        <v>2.441</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.188</v>
+        <v>0.888</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.617</v>
+        <v>8.295999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.016</v>
+        <v>6.144</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.333</v>
+        <v>3.026</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.499</v>
+        <v>15.588</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.475</v>
+        <v>4.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.71</v>
+        <v>1.914</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.078</v>
+        <v>2.568</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.243</v>
+        <v>3.32</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.393</v>
+        <v>3.405</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.438</v>
+        <v>0.975</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.044</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.544</v>
+        <v>4.177</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.901</v>
+        <v>2.841</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.209</v>
+        <v>0.927</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.189</v>
+        <v>0.463</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.242</v>
+        <v>38.497</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.652</v>
+        <v>8.648</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.977</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.077</v>
+        <v>5.522</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.961</v>
+        <v>2.775</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.187</v>
+        <v>0.844</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.197</v>
+        <v>7.141</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.927</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.296</v>
+        <v>2.313</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.908</v>
+        <v>2.741</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.423</v>
+        <v>3.456</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.453</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.063</v>
+        <v>14.616</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.678</v>
+        <v>1.405</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.154</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.52777777778</v>
+        <v>45119.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.201</v>
+        <v>12.49</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.328</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.255</v>
+        <v>27.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.514</v>
+        <v>21.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.883</v>
+        <v>9.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.817</v>
+        <v>35.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.512</v>
+        <v>15.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.859</v>
+        <v>6.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.784</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.287</v>
+        <v>10.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.738</v>
+        <v>11.45</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.861</v>
+        <v>3.14</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.575</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.018000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.647</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.332</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.729</v>
+        <v>141.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.271</v>
+        <v>27.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.149</v>
+        <v>9.02</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.613</v>
+        <v>18.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.478</v>
+        <v>9.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.763</v>
+        <v>1.62</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.638999999999999</v>
+        <v>17.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.603</v>
+        <v>7.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.407</v>
+        <v>7.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.733</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.683</v>
+        <v>11.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.361</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.866</v>
+        <v>31.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.051</v>
+        <v>5.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.389</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.37</v>
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>
